--- a/biology/Zoologie/Worshipful_Company_of_Fishmongers/Worshipful_Company_of_Fishmongers.xlsx
+++ b/biology/Zoologie/Worshipful_Company_of_Fishmongers/Worshipful_Company_of_Fishmongers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Worshipful Company of Fishmongers en français : « Vénérable compagnie des Poissonniers » est une des corporations de la cité de Londres qui, au Moyen Âge, regroupait les marchands faisant commerce du poisson[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Worshipful Company of Fishmongers en français : « Vénérable compagnie des Poissonniers » est une des corporations de la cité de Londres qui, au Moyen Âge, regroupait les marchands faisant commerce du poisson. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant 1272, les poissonniers de la Cité se réunissent en guilde afin de protéger leurs intérêts. Ils se voient accorder leur première charte royale en 1272, et en 1604, ils reçoivent une charte royale d'incorporation[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant 1272, les poissonniers de la Cité se réunissent en guilde afin de protéger leurs intérêts. Ils se voient accorder leur première charte royale en 1272, et en 1604, ils reçoivent une charte royale d'incorporation. 
 Les Poissonniers sont quatrième dans l'ordre de préséance des vénérables compagnies de Londres. 
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Armoiries</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Devise : "All Worship Be Unto God Alone", ce qui signifie "Tout culte à Dieu seul".</t>
         </is>
